--- a/doc/BACK_LOG.xlsx
+++ b/doc/BACK_LOG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>Issue</t>
   </si>
@@ -127,6 +127,21 @@
   </si>
   <si>
     <t>When adding an existing attribute we need to enhance it so that you can select a collectible and then select all of the attributes you want to add from that collectible - go WAY faster</t>
+  </si>
+  <si>
+    <t>Remove Part -link</t>
+  </si>
+  <si>
+    <t>Support admin path</t>
+  </si>
+  <si>
+    <t>Collectible Detail - Part List</t>
+  </si>
+  <si>
+    <t>Update to show other collectibles the part is linked to</t>
+  </si>
+  <si>
+    <t>Update the part list to show other collectibles the part is linked too</t>
   </si>
 </sst>
 </file>
@@ -468,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,6 +649,28 @@
       </c>
       <c r="C14" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/doc/BACK_LOG.xlsx
+++ b/doc/BACK_LOG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Issue</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>Update the part list to show other collectibles the part is linked too</t>
+  </si>
+  <si>
+    <t>Completed?</t>
+  </si>
+  <si>
+    <t>Release Completed In</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -483,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,9 +504,11 @@
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="93.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -510,8 +521,14 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -522,7 +539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -533,7 +550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -544,7 +561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -554,8 +571,14 @@
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -566,7 +589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -577,7 +600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -588,7 +611,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -599,7 +622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -607,7 +630,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -618,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -629,7 +652,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -640,7 +663,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -651,7 +674,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -662,7 +685,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>

--- a/doc/BACK_LOG.xlsx
+++ b/doc/BACK_LOG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>Issue</t>
   </si>
@@ -151,6 +151,21 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Collectible History</t>
+  </si>
+  <si>
+    <t>Need a better system to show changes over time.  I think we will use a collectible_activity table to store all activity for a collectible.  This would only show the approved stuff.   We would need to store the edit_id and then version_id of the corresponding table</t>
+  </si>
+  <si>
+    <t>Convert Edits to Text</t>
+  </si>
+  <si>
+    <t>Need a way to convert the edit tables into a textual format</t>
+  </si>
+  <si>
+    <t>This task would convert any current edit row into a textual format.  If I update the cost of a collectible = "Cost was update" or "New Attribute added to Collectible" or "Photo removed from Collectible".  This would be  used in the collectible history view as well as the activity view for when viewing edits</t>
   </si>
 </sst>
 </file>
@@ -492,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,6 +709,28 @@
       </c>
       <c r="C16" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/doc/BACK_LOG.xlsx
+++ b/doc/BACK_LOG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>Issue</t>
   </si>
@@ -510,12 +510,12 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="93.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -553,6 +553,12 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -666,6 +672,12 @@
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -677,6 +689,12 @@
       <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -709,6 +727,12 @@
       </c>
       <c r="C16" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16">
+        <v>1.8</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">

--- a/doc/BACK_LOG.xlsx
+++ b/doc/BACK_LOG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>Issue</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>This task would convert any current edit row into a textual format.  If I update the cost of a collectible = "Cost was update" or "New Attribute added to Collectible" or "Photo removed from Collectible".  This would be  used in the collectible history view as well as the activity view for when viewing edits</t>
+  </si>
+  <si>
+    <t>Delete User</t>
+  </si>
+  <si>
+    <t>Need a system to delete users from the site.  Also need to handle cases where if we delete a user and they do not exist anymore, how do I handle UI stuff, like history or comments or what? Maybe if I delete a user, we disable them? Delete their stashes and collectible_users and photos but we keep comments and them around for history and UI stuff</t>
   </si>
 </sst>
 </file>
@@ -507,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B21" sqref="B19:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,6 +761,17 @@
       </c>
       <c r="C18" s="1" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/doc/BACK_LOG.xlsx
+++ b/doc/BACK_LOG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>Issue</t>
   </si>
@@ -172,6 +172,18 @@
   </si>
   <si>
     <t>Need a system to delete users from the site.  Also need to handle cases where if we delete a user and they do not exist anymore, how do I handle UI stuff, like history or comments or what? Maybe if I delete a user, we disable them? Delete their stashes and collectible_users and photos but we keep comments and them around for history and UI stuff</t>
+  </si>
+  <si>
+    <t>Stash</t>
+  </si>
+  <si>
+    <t>Link to view collectible details from stash</t>
+  </si>
+  <si>
+    <t>Upload from URL</t>
+  </si>
+  <si>
+    <t>Add/Edit collectible</t>
   </si>
 </sst>
 </file>
@@ -513,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B19:B21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,6 +599,12 @@
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -615,6 +633,12 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -723,6 +747,12 @@
       <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -741,7 +771,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -752,7 +782,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -763,7 +793,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -772,6 +802,28 @@
       </c>
       <c r="C19" s="1" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/doc/BACK_LOG.xlsx
+++ b/doc/BACK_LOG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>Issue</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>Add/Edit collectible</t>
+  </si>
+  <si>
+    <t>Stash Photos</t>
+  </si>
+  <si>
+    <t>Be able to sort stash photos</t>
   </si>
 </sst>
 </file>
@@ -525,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,7 +777,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -782,7 +788,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -793,7 +799,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -804,7 +810,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -815,7 +821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -824,6 +830,20 @@
       </c>
       <c r="D21">
         <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/doc/BACK_LOG.xlsx
+++ b/doc/BACK_LOG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>Issue</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>Be able to sort stash photos</t>
+  </si>
+  <si>
+    <t>Add Manufacturer Collectible</t>
+  </si>
+  <si>
+    <t>When adding manufacturer, also needs to update attribute man list</t>
   </si>
 </sst>
 </file>
@@ -531,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,6 +850,14 @@
       </c>
       <c r="B22" s="1" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/doc/BACK_LOG.xlsx
+++ b/doc/BACK_LOG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t>Issue</t>
   </si>
@@ -196,13 +196,25 @@
   </si>
   <si>
     <t>When adding manufacturer, also needs to update attribute man list</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>2.2.3</t>
+  </si>
+  <si>
+    <t>Add Variant to Collectible</t>
+  </si>
+  <si>
+    <t>From a collectible be able to search for an existing collectible and add it as a variant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,13 +222,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -228,16 +264,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -537,15 +579,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="93.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -583,7 +625,7 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F2">
@@ -600,6 +642,7 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -611,7 +654,7 @@
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F4">
@@ -628,7 +671,7 @@
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F5">
@@ -645,7 +688,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F6">
@@ -662,6 +705,7 @@
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -673,6 +717,7 @@
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -684,6 +729,7 @@
       <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -692,6 +738,7 @@
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -703,6 +750,7 @@
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -714,7 +762,7 @@
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F12">
@@ -731,7 +779,7 @@
       <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F13">
@@ -748,6 +796,7 @@
       <c r="C14" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -759,7 +808,7 @@
       <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F15">
@@ -776,7 +825,7 @@
       <c r="C16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F16">
@@ -793,6 +842,7 @@
       <c r="C17" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -804,6 +854,7 @@
       <c r="C18" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -815,6 +866,7 @@
       <c r="C19" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -826,6 +878,12 @@
       <c r="D20">
         <v>1</v>
       </c>
+      <c r="E20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -837,7 +895,7 @@
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F21">
@@ -851,6 +909,7 @@
       <c r="B22" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -858,6 +917,18 @@
       </c>
       <c r="B23" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/doc/BACK_LOG.xlsx
+++ b/doc/BACK_LOG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
   <si>
     <t>Issue</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>From a collectible be able to search for an existing collectible and add it as a variant</t>
+  </si>
+  <si>
+    <t>Stash History</t>
+  </si>
+  <si>
+    <t>Allow the user to maintain collectibles they used to own</t>
   </si>
 </sst>
 </file>
@@ -579,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,6 +935,14 @@
       </c>
       <c r="C24" s="1" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/doc/BACK_LOG.xlsx
+++ b/doc/BACK_LOG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t>Issue</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>Allow the user to maintain collectibles they used to own</t>
+  </si>
+  <si>
+    <t>Need to do smart check to see if a manufacturer exists already, especially across collectible types</t>
+  </si>
+  <si>
+    <t>Might not be an issue anymore, I am only showing active ones now</t>
   </si>
 </sst>
 </file>
@@ -585,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +603,7 @@
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="93.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -648,7 +654,9 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -936,6 +944,7 @@
       <c r="C24" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -944,6 +953,16 @@
       <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/BACK_LOG.xlsx
+++ b/doc/BACK_LOG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
   <si>
     <t>Issue</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>Might not be an issue anymore, I am only showing active ones now</t>
+  </si>
+  <si>
+    <t>When adding an original commissioned piece, also be able to add as the one who made it (for cases where the artist is on CS but not the owner)</t>
   </si>
 </sst>
 </file>
@@ -591,15 +594,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.140625" customWidth="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="93.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -719,7 +722,10 @@
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -731,7 +737,10 @@
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -810,7 +819,7 @@
       <c r="C14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -963,6 +972,12 @@
         <v>66</v>
       </c>
       <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/BACK_LOG.xlsx
+++ b/doc/BACK_LOG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
   <si>
     <t>Issue</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>When adding an original commissioned piece, also be able to add as the one who made it (for cases where the artist is on CS but not the owner)</t>
+  </si>
+  <si>
+    <t>Create Check lists or stash lists</t>
+  </si>
+  <si>
+    <t>The ability to create personal lists of parts to share with other people.</t>
   </si>
 </sst>
 </file>
@@ -594,15 +600,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.140625" customWidth="1"/>
+    <col min="1" max="1" width="64.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="93.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -978,6 +984,18 @@
         <v>68</v>
       </c>
       <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/BACK_LOG.xlsx
+++ b/doc/BACK_LOG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
     <t>Issue</t>
   </si>
@@ -229,6 +229,15 @@
   </si>
   <si>
     <t>The ability to create personal lists of parts to share with other people.</t>
+  </si>
+  <si>
+    <t>Add Collectible</t>
+  </si>
+  <si>
+    <t>User.collectible_user_count is getting incremented when user creates custom or original, before it is activated</t>
+  </si>
+  <si>
+    <t>Even if the collectible or custom is not approved the counter cache is getting increased before the collectible is activated.  Update the process to only create the CollectibleUser object when they activate the collectible.</t>
   </si>
 </sst>
 </file>
@@ -600,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:E29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,6 +1005,18 @@
         <v>70</v>
       </c>
       <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/BACK_LOG.xlsx
+++ b/doc/BACK_LOG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
     <t>Issue</t>
   </si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>Even if the collectible or custom is not approved the counter cache is getting increased before the collectible is activated.  Update the process to only create the CollectibleUser object when they activate the collectible.</t>
+  </si>
+  <si>
+    <t>Stash stats and charts</t>
+  </si>
+  <si>
+    <t>Add some stats and charts about the user stash</t>
   </si>
 </sst>
 </file>
@@ -609,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,6 +1023,17 @@
         <v>73</v>
       </c>
       <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/BACK_LOG.xlsx
+++ b/doc/BACK_LOG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
   <si>
     <t>Issue</t>
   </si>
@@ -244,6 +244,24 @@
   </si>
   <si>
     <t>Add some stats and charts about the user stash</t>
+  </si>
+  <si>
+    <t>User Collectibles</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Add a notes field per uer collectible for users to add stuff</t>
+  </si>
+  <si>
+    <t>request by user via facebook</t>
+  </si>
+  <si>
+    <t>We do this now usually with the button being loading animation</t>
+  </si>
+  <si>
+    <t>2.5.2</t>
   </si>
 </sst>
 </file>
@@ -615,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,9 +647,10 @@
     <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -650,8 +669,11 @@
       <c r="F1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -668,7 +690,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -682,7 +704,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -699,7 +721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -716,7 +738,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -733,7 +755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -748,7 +770,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -763,7 +785,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -775,7 +797,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -784,7 +806,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -794,9 +816,12 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E11" s="3"/>
+      <c r="G11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -813,7 +838,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -830,7 +855,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -842,7 +867,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -859,7 +884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -876,7 +901,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -888,7 +913,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -900,7 +925,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -912,7 +937,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -929,7 +954,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -946,7 +971,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -955,7 +980,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -964,7 +989,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -976,16 +1001,19 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>64</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E25" s="3"/>
+      <c r="F25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -994,25 +1022,25 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>69</v>
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>70</v>
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -1024,7 +1052,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -1033,6 +1061,21 @@
       </c>
       <c r="C31" s="1" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="G32" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/doc/BACK_LOG.xlsx
+++ b/doc/BACK_LOG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
   <si>
     <t>Issue</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>2.5.2</t>
+  </si>
+  <si>
+    <t>Sort by average price</t>
+  </si>
+  <si>
+    <t>Sort a users collectible by average price</t>
   </si>
 </sst>
 </file>
@@ -633,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,6 +1083,18 @@
       <c r="G32" t="s">
         <v>79</v>
       </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
